--- a/anon_data/anon_data_global2_pram.xlsx
+++ b/anon_data/anon_data_global2_pram.xlsx
@@ -752,7 +752,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -1220,7 +1220,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -1454,7 +1454,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B38" t="n">
         <v>1</v>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B44" t="n">
         <v>1</v>
@@ -1740,7 +1740,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B51" t="n">
         <v>0</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B58" t="n">
         <v>0</v>
@@ -2130,7 +2130,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B64" t="n">
         <v>1</v>
@@ -2260,7 +2260,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B81" t="n">
         <v>0</v>
@@ -2650,7 +2650,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B84" t="n">
         <v>0</v>
@@ -3144,7 +3144,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -3248,7 +3248,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B107" t="n">
         <v>0</v>
@@ -3300,7 +3300,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -3378,7 +3378,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -3430,7 +3430,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B114" t="n">
         <v>1</v>
@@ -3482,7 +3482,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B116" t="n">
         <v>1</v>
@@ -3534,7 +3534,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B118" t="n">
         <v>1</v>
@@ -3716,7 +3716,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -3768,7 +3768,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B127" t="n">
         <v>1</v>
@@ -3820,7 +3820,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -4314,7 +4314,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B148" t="n">
         <v>0</v>
@@ -4470,7 +4470,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B154" t="n">
         <v>1</v>
@@ -4522,7 +4522,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B156" t="n">
         <v>1</v>
@@ -4652,7 +4652,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B161" t="n">
         <v>0</v>
@@ -4730,7 +4730,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B164" t="n">
         <v>1</v>
@@ -4782,7 +4782,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B166" t="n">
         <v>1</v>
@@ -5224,7 +5224,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B183" t="n">
         <v>1</v>
@@ -5250,7 +5250,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B184" t="n">
         <v>1</v>
@@ -5302,7 +5302,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B186" t="n">
         <v>0</v>
@@ -5354,7 +5354,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B188" t="n">
         <v>0</v>
@@ -5380,7 +5380,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B189" t="n">
         <v>0</v>
@@ -5406,7 +5406,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B190" t="n">
         <v>0</v>
@@ -5536,7 +5536,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B195" t="n">
         <v>1</v>
@@ -5666,7 +5666,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B200" t="n">
         <v>0</v>

--- a/anon_data/anon_data_global2_pram.xlsx
+++ b/anon_data/anon_data_global2_pram.xlsx
@@ -570,7 +570,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -752,7 +752,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -830,7 +830,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
@@ -856,7 +856,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -1168,7 +1168,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
@@ -1454,7 +1454,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B38" t="n">
         <v>1</v>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B44" t="n">
         <v>1</v>
@@ -1662,7 +1662,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B46" t="n">
         <v>1</v>
@@ -1740,7 +1740,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B58" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B62" t="n">
         <v>1</v>
@@ -2104,7 +2104,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B63" t="n">
         <v>1</v>
@@ -2260,7 +2260,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -2312,7 +2312,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -2494,7 +2494,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B78" t="n">
         <v>0</v>
@@ -2546,7 +2546,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B80" t="n">
         <v>1</v>
@@ -2598,7 +2598,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B82" t="n">
         <v>0</v>
@@ -2650,7 +2650,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B84" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
@@ -3144,7 +3144,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -3196,7 +3196,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -3248,7 +3248,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B107" t="n">
         <v>0</v>
@@ -3352,7 +3352,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -3456,7 +3456,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -3482,7 +3482,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B116" t="n">
         <v>1</v>
@@ -3508,7 +3508,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B117" t="n">
         <v>1</v>
@@ -3534,7 +3534,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B118" t="n">
         <v>1</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -3690,7 +3690,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -3716,7 +3716,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -3768,7 +3768,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B127" t="n">
         <v>1</v>
@@ -3820,7 +3820,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -4080,7 +4080,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -4236,7 +4236,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B145" t="n">
         <v>0</v>
@@ -4314,7 +4314,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B148" t="n">
         <v>0</v>
@@ -4652,7 +4652,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B161" t="n">
         <v>0</v>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B162" t="n">
         <v>0</v>
@@ -4756,7 +4756,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B165" t="n">
         <v>0</v>
@@ -4782,7 +4782,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B166" t="n">
         <v>1</v>
@@ -4990,7 +4990,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B174" t="n">
         <v>1</v>
@@ -5094,7 +5094,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B178" t="n">
         <v>0</v>
@@ -5172,7 +5172,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B181" t="n">
         <v>0</v>
@@ -5198,7 +5198,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B182" t="n">
         <v>0</v>
@@ -5224,7 +5224,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B183" t="n">
         <v>1</v>
@@ -5250,7 +5250,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B184" t="n">
         <v>1</v>
@@ -5276,7 +5276,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B185" t="n">
         <v>0</v>
@@ -5380,7 +5380,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B189" t="n">
         <v>0</v>
@@ -5406,7 +5406,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B190" t="n">
         <v>0</v>
@@ -5458,7 +5458,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B192" t="n">
         <v>0</v>
@@ -5536,7 +5536,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B195" t="n">
         <v>1</v>
@@ -5614,7 +5614,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B198" t="n">
         <v>0</v>
@@ -5666,7 +5666,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B200" t="n">
         <v>0</v>
